--- a/data/output/FV2404_FV2310/UTILMD/55148.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55148.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11015" uniqueCount="691">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="691">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2294,6 +2294,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U558" totalsRowShown="0">
+  <autoFilter ref="A1:U558"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2583,7 +2613,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -27414,5 +27447,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55148.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55148.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13289" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13171" uniqueCount="1240">
   <si>
     <t>#</t>
   </si>
@@ -18418,44 +18418,42 @@
       <c r="V290" s="11"/>
     </row>
     <row r="291" spans="1:22">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2" t="s">
+      <c r="C291" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K291" s="2"/>
-      <c r="L291" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M291" s="2" t="s">
+      <c r="K291" s="5"/>
+      <c r="L291" s="7"/>
+      <c r="M291" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N291" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O291" s="2"/>
-      <c r="P291" s="2"/>
-      <c r="Q291" s="2"/>
-      <c r="R291" s="2"/>
-      <c r="S291" s="2"/>
-      <c r="T291" s="2"/>
-      <c r="U291" s="2" t="s">
+      <c r="N291" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V291" s="2"/>
+      <c r="V291" s="5"/>
     </row>
     <row r="292" spans="1:22">
       <c r="A292" s="2" t="s">
@@ -18589,9 +18587,7 @@
         <v>430</v>
       </c>
       <c r="K294" s="2"/>
-      <c r="L294" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L294" s="7"/>
       <c r="M294" s="2" t="s">
         <v>52</v>
       </c>
@@ -21232,46 +21228,44 @@
       <c r="V361" s="2"/>
     </row>
     <row r="362" spans="1:22">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2"/>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2" t="s">
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
+      <c r="J362" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="K362" s="2" t="s">
+      <c r="K362" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="L362" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M362" s="2" t="s">
+      <c r="L362" s="7"/>
+      <c r="M362" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N362" s="2" t="s">
+      <c r="N362" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O362" s="2"/>
-      <c r="P362" s="2"/>
-      <c r="Q362" s="2"/>
-      <c r="R362" s="2"/>
-      <c r="S362" s="2"/>
-      <c r="T362" s="2"/>
-      <c r="U362" s="2" t="s">
+      <c r="O362" s="5"/>
+      <c r="P362" s="5"/>
+      <c r="Q362" s="5"/>
+      <c r="R362" s="5"/>
+      <c r="S362" s="5"/>
+      <c r="T362" s="5"/>
+      <c r="U362" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="V362" s="2" t="s">
+      <c r="V362" s="5" t="s">
         <v>526</v>
       </c>
     </row>
@@ -21542,44 +21536,42 @@
       </c>
     </row>
     <row r="368" spans="1:22">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C368" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-      <c r="H368" s="2"/>
-      <c r="I368" s="2"/>
-      <c r="J368" s="2" t="s">
+      <c r="C368" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
+      <c r="J368" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K368" s="2"/>
-      <c r="L368" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M368" s="2" t="s">
+      <c r="K368" s="5"/>
+      <c r="L368" s="7"/>
+      <c r="M368" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N368" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
-      <c r="Q368" s="2"/>
-      <c r="R368" s="2"/>
-      <c r="S368" s="2"/>
-      <c r="T368" s="2"/>
-      <c r="U368" s="2" t="s">
+      <c r="N368" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O368" s="5"/>
+      <c r="P368" s="5"/>
+      <c r="Q368" s="5"/>
+      <c r="R368" s="5"/>
+      <c r="S368" s="5"/>
+      <c r="T368" s="5"/>
+      <c r="U368" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V368" s="2"/>
+      <c r="V368" s="5"/>
     </row>
     <row r="369" spans="1:22">
       <c r="A369" s="2" t="s">
@@ -21817,9 +21809,7 @@
         <v>427</v>
       </c>
       <c r="K373" s="2"/>
-      <c r="L373" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L373" s="7"/>
       <c r="M373" s="2" t="s">
         <v>75</v>
       </c>
@@ -21873,9 +21863,7 @@
         <v>427</v>
       </c>
       <c r="K374" s="2"/>
-      <c r="L374" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L374" s="7"/>
       <c r="M374" s="2" t="s">
         <v>75</v>
       </c>
@@ -21929,9 +21917,7 @@
         <v>427</v>
       </c>
       <c r="K375" s="2"/>
-      <c r="L375" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L375" s="7"/>
       <c r="M375" s="2" t="s">
         <v>75</v>
       </c>
@@ -21958,46 +21944,44 @@
       <c r="V375" s="2"/>
     </row>
     <row r="376" spans="1:22">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="C376" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
-      <c r="G376" s="2"/>
-      <c r="H376" s="2"/>
-      <c r="I376" s="2"/>
-      <c r="J376" s="2" t="s">
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="K376" s="2" t="s">
+      <c r="K376" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="L376" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M376" s="2" t="s">
+      <c r="L376" s="7"/>
+      <c r="M376" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N376" s="2" t="s">
+      <c r="N376" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O376" s="2"/>
-      <c r="P376" s="2"/>
-      <c r="Q376" s="2"/>
-      <c r="R376" s="2"/>
-      <c r="S376" s="2"/>
-      <c r="T376" s="2"/>
-      <c r="U376" s="2" t="s">
+      <c r="O376" s="5"/>
+      <c r="P376" s="5"/>
+      <c r="Q376" s="5"/>
+      <c r="R376" s="5"/>
+      <c r="S376" s="5"/>
+      <c r="T376" s="5"/>
+      <c r="U376" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="V376" s="2" t="s">
+      <c r="V376" s="5" t="s">
         <v>527</v>
       </c>
     </row>
@@ -22430,44 +22414,42 @@
       <c r="V384" s="2"/>
     </row>
     <row r="385" spans="1:22">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
-      <c r="F385" s="2"/>
-      <c r="G385" s="2"/>
-      <c r="H385" s="2"/>
-      <c r="I385" s="2"/>
-      <c r="J385" s="2" t="s">
+      <c r="C385" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K385" s="2"/>
-      <c r="L385" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M385" s="2" t="s">
+      <c r="K385" s="5"/>
+      <c r="L385" s="7"/>
+      <c r="M385" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N385" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O385" s="2"/>
-      <c r="P385" s="2"/>
-      <c r="Q385" s="2"/>
-      <c r="R385" s="2"/>
-      <c r="S385" s="2"/>
-      <c r="T385" s="2"/>
-      <c r="U385" s="2" t="s">
+      <c r="N385" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O385" s="5"/>
+      <c r="P385" s="5"/>
+      <c r="Q385" s="5"/>
+      <c r="R385" s="5"/>
+      <c r="S385" s="5"/>
+      <c r="T385" s="5"/>
+      <c r="U385" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V385" s="2"/>
+      <c r="V385" s="5"/>
     </row>
     <row r="386" spans="1:22">
       <c r="A386" s="2" t="s">
@@ -22705,9 +22687,7 @@
         <v>427</v>
       </c>
       <c r="K390" s="2"/>
-      <c r="L390" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L390" s="7"/>
       <c r="M390" s="2" t="s">
         <v>79</v>
       </c>
@@ -22761,9 +22741,7 @@
         <v>427</v>
       </c>
       <c r="K391" s="2"/>
-      <c r="L391" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L391" s="7"/>
       <c r="M391" s="2" t="s">
         <v>79</v>
       </c>
@@ -22817,9 +22795,7 @@
         <v>427</v>
       </c>
       <c r="K392" s="2"/>
-      <c r="L392" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L392" s="7"/>
       <c r="M392" s="2" t="s">
         <v>79</v>
       </c>
@@ -22873,9 +22849,7 @@
         <v>427</v>
       </c>
       <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="2" t="s">
         <v>79</v>
       </c>
@@ -22929,9 +22903,7 @@
         <v>427</v>
       </c>
       <c r="K394" s="2"/>
-      <c r="L394" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L394" s="7"/>
       <c r="M394" s="2" t="s">
         <v>79</v>
       </c>
@@ -22985,9 +22957,7 @@
         <v>427</v>
       </c>
       <c r="K395" s="2"/>
-      <c r="L395" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L395" s="7"/>
       <c r="M395" s="2" t="s">
         <v>79</v>
       </c>
@@ -23099,9 +23069,7 @@
         <v>475</v>
       </c>
       <c r="K397" s="2"/>
-      <c r="L397" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L397" s="7"/>
       <c r="M397" s="2" t="s">
         <v>79</v>
       </c>
@@ -23155,9 +23123,7 @@
         <v>475</v>
       </c>
       <c r="K398" s="2"/>
-      <c r="L398" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L398" s="7"/>
       <c r="M398" s="2" t="s">
         <v>79</v>
       </c>
@@ -23211,9 +23177,7 @@
         <v>476</v>
       </c>
       <c r="K399" s="2"/>
-      <c r="L399" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L399" s="7"/>
       <c r="M399" s="2" t="s">
         <v>79</v>
       </c>
@@ -23269,9 +23233,7 @@
       <c r="K400" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L400" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L400" s="7"/>
       <c r="M400" s="2" t="s">
         <v>79</v>
       </c>
@@ -23593,9 +23555,7 @@
         <v>427</v>
       </c>
       <c r="K406" s="2"/>
-      <c r="L406" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L406" s="7"/>
       <c r="M406" s="2" t="s">
         <v>81</v>
       </c>
@@ -23649,9 +23609,7 @@
         <v>427</v>
       </c>
       <c r="K407" s="2"/>
-      <c r="L407" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L407" s="7"/>
       <c r="M407" s="2" t="s">
         <v>81</v>
       </c>
@@ -23809,9 +23767,7 @@
         <v>427</v>
       </c>
       <c r="K410" s="2"/>
-      <c r="L410" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L410" s="7"/>
       <c r="M410" s="2" t="s">
         <v>82</v>
       </c>
@@ -24027,9 +23983,7 @@
         <v>427</v>
       </c>
       <c r="K414" s="2"/>
-      <c r="L414" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L414" s="7"/>
       <c r="M414" s="2" t="s">
         <v>83</v>
       </c>
@@ -24056,44 +24010,42 @@
       <c r="V414" s="2"/>
     </row>
     <row r="415" spans="1:22">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-      <c r="J415" s="2" t="s">
+      <c r="C415" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5"/>
+      <c r="J415" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K415" s="2"/>
-      <c r="L415" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M415" s="2" t="s">
+      <c r="K415" s="5"/>
+      <c r="L415" s="7"/>
+      <c r="M415" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N415" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O415" s="2"/>
-      <c r="P415" s="2"/>
-      <c r="Q415" s="2"/>
-      <c r="R415" s="2"/>
-      <c r="S415" s="2"/>
-      <c r="T415" s="2"/>
-      <c r="U415" s="2" t="s">
+      <c r="N415" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O415" s="5"/>
+      <c r="P415" s="5"/>
+      <c r="Q415" s="5"/>
+      <c r="R415" s="5"/>
+      <c r="S415" s="5"/>
+      <c r="T415" s="5"/>
+      <c r="U415" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V415" s="2"/>
+      <c r="V415" s="5"/>
     </row>
     <row r="416" spans="1:22">
       <c r="A416" s="2" t="s">
@@ -24331,9 +24283,7 @@
         <v>427</v>
       </c>
       <c r="K420" s="2"/>
-      <c r="L420" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L420" s="7"/>
       <c r="M420" s="2" t="s">
         <v>84</v>
       </c>
@@ -24387,9 +24337,7 @@
         <v>427</v>
       </c>
       <c r="K421" s="2"/>
-      <c r="L421" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L421" s="7"/>
       <c r="M421" s="2" t="s">
         <v>84</v>
       </c>
@@ -24416,46 +24364,44 @@
       <c r="V421" s="2"/>
     </row>
     <row r="422" spans="1:22">
-      <c r="A422" s="2" t="s">
+      <c r="A422" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C422" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="2"/>
-      <c r="J422" s="2" t="s">
+      <c r="C422" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
+      <c r="I422" s="5"/>
+      <c r="J422" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K422" s="2" t="s">
+      <c r="K422" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="L422" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M422" s="2" t="s">
+      <c r="L422" s="7"/>
+      <c r="M422" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N422" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O422" s="2"/>
-      <c r="P422" s="2"/>
-      <c r="Q422" s="2"/>
-      <c r="R422" s="2"/>
-      <c r="S422" s="2"/>
-      <c r="T422" s="2"/>
-      <c r="U422" s="2" t="s">
+      <c r="N422" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O422" s="5"/>
+      <c r="P422" s="5"/>
+      <c r="Q422" s="5"/>
+      <c r="R422" s="5"/>
+      <c r="S422" s="5"/>
+      <c r="T422" s="5"/>
+      <c r="U422" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="V422" s="2" t="s">
+      <c r="V422" s="5" t="s">
         <v>531</v>
       </c>
     </row>
@@ -24695,9 +24641,7 @@
         <v>427</v>
       </c>
       <c r="K427" s="2"/>
-      <c r="L427" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L427" s="7"/>
       <c r="M427" s="2" t="s">
         <v>85</v>
       </c>
@@ -24724,46 +24668,44 @@
       <c r="V427" s="2"/>
     </row>
     <row r="428" spans="1:22">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C428" s="2" t="s">
+      <c r="C428" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-      <c r="I428" s="2"/>
-      <c r="J428" s="2" t="s">
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
+      <c r="I428" s="5"/>
+      <c r="J428" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="K428" s="2" t="s">
+      <c r="K428" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="L428" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M428" s="2" t="s">
+      <c r="L428" s="7"/>
+      <c r="M428" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N428" s="2" t="s">
+      <c r="N428" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O428" s="2"/>
-      <c r="P428" s="2"/>
-      <c r="Q428" s="2"/>
-      <c r="R428" s="2"/>
-      <c r="S428" s="2"/>
-      <c r="T428" s="2"/>
-      <c r="U428" s="2" t="s">
+      <c r="O428" s="5"/>
+      <c r="P428" s="5"/>
+      <c r="Q428" s="5"/>
+      <c r="R428" s="5"/>
+      <c r="S428" s="5"/>
+      <c r="T428" s="5"/>
+      <c r="U428" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="V428" s="2" t="s">
+      <c r="V428" s="5" t="s">
         <v>532</v>
       </c>
     </row>
@@ -25009,9 +24951,7 @@
       <c r="K433" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="L433" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L433" s="7"/>
       <c r="M433" s="2" t="s">
         <v>87</v>
       </c>
@@ -25804,46 +25744,44 @@
       <c r="V447" s="2"/>
     </row>
     <row r="448" spans="1:22">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
-      <c r="H448" s="2"/>
-      <c r="I448" s="2"/>
-      <c r="J448" s="2" t="s">
+      <c r="C448" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
+      <c r="I448" s="5"/>
+      <c r="J448" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K448" s="2" t="s">
+      <c r="K448" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="L448" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M448" s="2" t="s">
+      <c r="L448" s="7"/>
+      <c r="M448" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N448" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O448" s="2"/>
-      <c r="P448" s="2"/>
-      <c r="Q448" s="2"/>
-      <c r="R448" s="2"/>
-      <c r="S448" s="2"/>
-      <c r="T448" s="2"/>
-      <c r="U448" s="2" t="s">
+      <c r="N448" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O448" s="5"/>
+      <c r="P448" s="5"/>
+      <c r="Q448" s="5"/>
+      <c r="R448" s="5"/>
+      <c r="S448" s="5"/>
+      <c r="T448" s="5"/>
+      <c r="U448" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="V448" s="2" t="s">
+      <c r="V448" s="5" t="s">
         <v>538</v>
       </c>
     </row>
@@ -26083,9 +26021,7 @@
         <v>427</v>
       </c>
       <c r="K453" s="2"/>
-      <c r="L453" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L453" s="7"/>
       <c r="M453" s="2" t="s">
         <v>58</v>
       </c>
@@ -26139,9 +26075,7 @@
         <v>427</v>
       </c>
       <c r="K454" s="2"/>
-      <c r="L454" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L454" s="7"/>
       <c r="M454" s="2" t="s">
         <v>58</v>
       </c>
@@ -26195,9 +26129,7 @@
         <v>427</v>
       </c>
       <c r="K455" s="2"/>
-      <c r="L455" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L455" s="7"/>
       <c r="M455" s="2" t="s">
         <v>58</v>
       </c>
@@ -26224,46 +26156,44 @@
       <c r="V455" s="2"/>
     </row>
     <row r="456" spans="1:22">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-      <c r="I456" s="2"/>
-      <c r="J456" s="2" t="s">
+      <c r="C456" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
+      <c r="I456" s="5"/>
+      <c r="J456" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="K456" s="2" t="s">
+      <c r="K456" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="L456" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M456" s="2" t="s">
+      <c r="L456" s="7"/>
+      <c r="M456" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N456" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O456" s="2"/>
-      <c r="P456" s="2"/>
-      <c r="Q456" s="2"/>
-      <c r="R456" s="2"/>
-      <c r="S456" s="2"/>
-      <c r="T456" s="2"/>
-      <c r="U456" s="2" t="s">
+      <c r="N456" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O456" s="5"/>
+      <c r="P456" s="5"/>
+      <c r="Q456" s="5"/>
+      <c r="R456" s="5"/>
+      <c r="S456" s="5"/>
+      <c r="T456" s="5"/>
+      <c r="U456" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="V456" s="2" t="s">
+      <c r="V456" s="5" t="s">
         <v>539</v>
       </c>
     </row>
@@ -26426,46 +26356,44 @@
       <c r="V459" s="2"/>
     </row>
     <row r="460" spans="1:22">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C460" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-      <c r="H460" s="2"/>
-      <c r="I460" s="2"/>
-      <c r="J460" s="2" t="s">
+      <c r="C460" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
+      <c r="I460" s="5"/>
+      <c r="J460" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="K460" s="2" t="s">
+      <c r="K460" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="L460" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M460" s="2" t="s">
+      <c r="L460" s="7"/>
+      <c r="M460" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N460" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O460" s="2"/>
-      <c r="P460" s="2"/>
-      <c r="Q460" s="2"/>
-      <c r="R460" s="2"/>
-      <c r="S460" s="2"/>
-      <c r="T460" s="2"/>
-      <c r="U460" s="2" t="s">
+      <c r="N460" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O460" s="5"/>
+      <c r="P460" s="5"/>
+      <c r="Q460" s="5"/>
+      <c r="R460" s="5"/>
+      <c r="S460" s="5"/>
+      <c r="T460" s="5"/>
+      <c r="U460" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="V460" s="2" t="s">
+      <c r="V460" s="5" t="s">
         <v>519</v>
       </c>
     </row>
@@ -26628,46 +26556,44 @@
       <c r="V463" s="2"/>
     </row>
     <row r="464" spans="1:22">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C464" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D464" s="2"/>
-      <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
-      <c r="H464" s="2"/>
-      <c r="I464" s="2"/>
-      <c r="J464" s="2" t="s">
+      <c r="C464" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+      <c r="G464" s="5"/>
+      <c r="H464" s="5"/>
+      <c r="I464" s="5"/>
+      <c r="J464" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="K464" s="2" t="s">
+      <c r="K464" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="L464" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M464" s="2" t="s">
+      <c r="L464" s="7"/>
+      <c r="M464" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N464" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O464" s="2"/>
-      <c r="P464" s="2"/>
-      <c r="Q464" s="2"/>
-      <c r="R464" s="2"/>
-      <c r="S464" s="2"/>
-      <c r="T464" s="2"/>
-      <c r="U464" s="2" t="s">
+      <c r="N464" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O464" s="5"/>
+      <c r="P464" s="5"/>
+      <c r="Q464" s="5"/>
+      <c r="R464" s="5"/>
+      <c r="S464" s="5"/>
+      <c r="T464" s="5"/>
+      <c r="U464" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="V464" s="2" t="s">
+      <c r="V464" s="5" t="s">
         <v>540</v>
       </c>
     </row>
@@ -26988,46 +26914,44 @@
       <c r="V470" s="2"/>
     </row>
     <row r="471" spans="1:22">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C471" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D471" s="2"/>
-      <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
-      <c r="H471" s="2"/>
-      <c r="I471" s="2"/>
-      <c r="J471" s="2" t="s">
+      <c r="C471" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+      <c r="G471" s="5"/>
+      <c r="H471" s="5"/>
+      <c r="I471" s="5"/>
+      <c r="J471" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="K471" s="2" t="s">
+      <c r="K471" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="L471" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M471" s="2" t="s">
+      <c r="L471" s="7"/>
+      <c r="M471" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N471" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O471" s="2"/>
-      <c r="P471" s="2"/>
-      <c r="Q471" s="2"/>
-      <c r="R471" s="2"/>
-      <c r="S471" s="2"/>
-      <c r="T471" s="2"/>
-      <c r="U471" s="2" t="s">
+      <c r="N471" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O471" s="5"/>
+      <c r="P471" s="5"/>
+      <c r="Q471" s="5"/>
+      <c r="R471" s="5"/>
+      <c r="S471" s="5"/>
+      <c r="T471" s="5"/>
+      <c r="U471" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="V471" s="2" t="s">
+      <c r="V471" s="5" t="s">
         <v>541</v>
       </c>
     </row>
@@ -27190,46 +27114,44 @@
       <c r="V474" s="2"/>
     </row>
     <row r="475" spans="1:22">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D475" s="2"/>
-      <c r="E475" s="2"/>
-      <c r="F475" s="2"/>
-      <c r="G475" s="2"/>
-      <c r="H475" s="2"/>
-      <c r="I475" s="2"/>
-      <c r="J475" s="2" t="s">
+      <c r="C475" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D475" s="5"/>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+      <c r="G475" s="5"/>
+      <c r="H475" s="5"/>
+      <c r="I475" s="5"/>
+      <c r="J475" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="K475" s="2" t="s">
+      <c r="K475" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L475" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M475" s="2" t="s">
+      <c r="L475" s="7"/>
+      <c r="M475" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N475" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O475" s="2"/>
-      <c r="P475" s="2"/>
-      <c r="Q475" s="2"/>
-      <c r="R475" s="2"/>
-      <c r="S475" s="2"/>
-      <c r="T475" s="2"/>
-      <c r="U475" s="2" t="s">
+      <c r="N475" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O475" s="5"/>
+      <c r="P475" s="5"/>
+      <c r="Q475" s="5"/>
+      <c r="R475" s="5"/>
+      <c r="S475" s="5"/>
+      <c r="T475" s="5"/>
+      <c r="U475" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="V475" s="2" t="s">
+      <c r="V475" s="5" t="s">
         <v>542</v>
       </c>
     </row>
@@ -27423,9 +27345,7 @@
         <v>427</v>
       </c>
       <c r="K479" s="2"/>
-      <c r="L479" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L479" s="7"/>
       <c r="M479" s="2" t="s">
         <v>94</v>
       </c>
@@ -27452,46 +27372,44 @@
       <c r="V479" s="2"/>
     </row>
     <row r="480" spans="1:22">
-      <c r="A480" s="2" t="s">
+      <c r="A480" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C480" s="2" t="s">
+      <c r="C480" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D480" s="2"/>
-      <c r="E480" s="2"/>
-      <c r="F480" s="2"/>
-      <c r="G480" s="2"/>
-      <c r="H480" s="2"/>
-      <c r="I480" s="2"/>
-      <c r="J480" s="2" t="s">
+      <c r="D480" s="5"/>
+      <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+      <c r="G480" s="5"/>
+      <c r="H480" s="5"/>
+      <c r="I480" s="5"/>
+      <c r="J480" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K480" s="2" t="s">
+      <c r="K480" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="L480" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M480" s="2" t="s">
+      <c r="L480" s="7"/>
+      <c r="M480" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N480" s="2" t="s">
+      <c r="N480" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O480" s="2"/>
-      <c r="P480" s="2"/>
-      <c r="Q480" s="2"/>
-      <c r="R480" s="2"/>
-      <c r="S480" s="2"/>
-      <c r="T480" s="2"/>
-      <c r="U480" s="2" t="s">
+      <c r="O480" s="5"/>
+      <c r="P480" s="5"/>
+      <c r="Q480" s="5"/>
+      <c r="R480" s="5"/>
+      <c r="S480" s="5"/>
+      <c r="T480" s="5"/>
+      <c r="U480" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="V480" s="2" t="s">
+      <c r="V480" s="5" t="s">
         <v>543</v>
       </c>
     </row>
@@ -27758,44 +27676,42 @@
       <c r="V485" s="2"/>
     </row>
     <row r="486" spans="1:22">
-      <c r="A486" s="2" t="s">
+      <c r="A486" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B486" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C486" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D486" s="2"/>
-      <c r="E486" s="2"/>
-      <c r="F486" s="2"/>
-      <c r="G486" s="2"/>
-      <c r="H486" s="2"/>
-      <c r="I486" s="2"/>
-      <c r="J486" s="2" t="s">
+      <c r="C486" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D486" s="5"/>
+      <c r="E486" s="5"/>
+      <c r="F486" s="5"/>
+      <c r="G486" s="5"/>
+      <c r="H486" s="5"/>
+      <c r="I486" s="5"/>
+      <c r="J486" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K486" s="2"/>
-      <c r="L486" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M486" s="2" t="s">
+      <c r="K486" s="5"/>
+      <c r="L486" s="7"/>
+      <c r="M486" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N486" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O486" s="2"/>
-      <c r="P486" s="2"/>
-      <c r="Q486" s="2"/>
-      <c r="R486" s="2"/>
-      <c r="S486" s="2"/>
-      <c r="T486" s="2"/>
-      <c r="U486" s="2" t="s">
+      <c r="N486" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O486" s="5"/>
+      <c r="P486" s="5"/>
+      <c r="Q486" s="5"/>
+      <c r="R486" s="5"/>
+      <c r="S486" s="5"/>
+      <c r="T486" s="5"/>
+      <c r="U486" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V486" s="2"/>
+      <c r="V486" s="5"/>
     </row>
     <row r="487" spans="1:22">
       <c r="A487" s="2" t="s">
@@ -28195,9 +28111,7 @@
         <v>427</v>
       </c>
       <c r="K494" s="2"/>
-      <c r="L494" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L494" s="7"/>
       <c r="M494" s="2" t="s">
         <v>97</v>
       </c>
@@ -28251,9 +28165,7 @@
         <v>427</v>
       </c>
       <c r="K495" s="2"/>
-      <c r="L495" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L495" s="7"/>
       <c r="M495" s="2" t="s">
         <v>97</v>
       </c>
@@ -28307,9 +28219,7 @@
         <v>427</v>
       </c>
       <c r="K496" s="2"/>
-      <c r="L496" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L496" s="7"/>
       <c r="M496" s="2" t="s">
         <v>97</v>
       </c>
@@ -28394,46 +28304,44 @@
       </c>
     </row>
     <row r="498" spans="1:22">
-      <c r="A498" s="2" t="s">
+      <c r="A498" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B498" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C498" s="2" t="s">
+      <c r="C498" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D498" s="2"/>
-      <c r="E498" s="2"/>
-      <c r="F498" s="2"/>
-      <c r="G498" s="2"/>
-      <c r="H498" s="2"/>
-      <c r="I498" s="2"/>
-      <c r="J498" s="2" t="s">
+      <c r="D498" s="5"/>
+      <c r="E498" s="5"/>
+      <c r="F498" s="5"/>
+      <c r="G498" s="5"/>
+      <c r="H498" s="5"/>
+      <c r="I498" s="5"/>
+      <c r="J498" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K498" s="2" t="s">
+      <c r="K498" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="L498" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M498" s="2" t="s">
+      <c r="L498" s="7"/>
+      <c r="M498" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N498" s="2" t="s">
+      <c r="N498" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O498" s="2"/>
-      <c r="P498" s="2"/>
-      <c r="Q498" s="2"/>
-      <c r="R498" s="2"/>
-      <c r="S498" s="2"/>
-      <c r="T498" s="2"/>
-      <c r="U498" s="2" t="s">
+      <c r="O498" s="5"/>
+      <c r="P498" s="5"/>
+      <c r="Q498" s="5"/>
+      <c r="R498" s="5"/>
+      <c r="S498" s="5"/>
+      <c r="T498" s="5"/>
+      <c r="U498" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="V498" s="2" t="s">
+      <c r="V498" s="5" t="s">
         <v>546</v>
       </c>
     </row>
@@ -28700,44 +28608,42 @@
       <c r="V503" s="2"/>
     </row>
     <row r="504" spans="1:22">
-      <c r="A504" s="2" t="s">
+      <c r="A504" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B504" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C504" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D504" s="2"/>
-      <c r="E504" s="2"/>
-      <c r="F504" s="2"/>
-      <c r="G504" s="2"/>
-      <c r="H504" s="2"/>
-      <c r="I504" s="2"/>
-      <c r="J504" s="2" t="s">
+      <c r="C504" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D504" s="5"/>
+      <c r="E504" s="5"/>
+      <c r="F504" s="5"/>
+      <c r="G504" s="5"/>
+      <c r="H504" s="5"/>
+      <c r="I504" s="5"/>
+      <c r="J504" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K504" s="2"/>
-      <c r="L504" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M504" s="2" t="s">
+      <c r="K504" s="5"/>
+      <c r="L504" s="7"/>
+      <c r="M504" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N504" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O504" s="2"/>
-      <c r="P504" s="2"/>
-      <c r="Q504" s="2"/>
-      <c r="R504" s="2"/>
-      <c r="S504" s="2"/>
-      <c r="T504" s="2"/>
-      <c r="U504" s="2" t="s">
+      <c r="N504" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O504" s="5"/>
+      <c r="P504" s="5"/>
+      <c r="Q504" s="5"/>
+      <c r="R504" s="5"/>
+      <c r="S504" s="5"/>
+      <c r="T504" s="5"/>
+      <c r="U504" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V504" s="2"/>
+      <c r="V504" s="5"/>
     </row>
     <row r="505" spans="1:22">
       <c r="A505" s="2" t="s">
@@ -29133,9 +29039,7 @@
         <v>427</v>
       </c>
       <c r="K512" s="2"/>
-      <c r="L512" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L512" s="7"/>
       <c r="M512" s="2" t="s">
         <v>100</v>
       </c>
@@ -29189,9 +29093,7 @@
         <v>427</v>
       </c>
       <c r="K513" s="2"/>
-      <c r="L513" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L513" s="7"/>
       <c r="M513" s="2" t="s">
         <v>100</v>
       </c>
@@ -29245,9 +29147,7 @@
         <v>427</v>
       </c>
       <c r="K514" s="2"/>
-      <c r="L514" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L514" s="7"/>
       <c r="M514" s="2" t="s">
         <v>100</v>
       </c>
@@ -29301,9 +29201,7 @@
         <v>427</v>
       </c>
       <c r="K515" s="2"/>
-      <c r="L515" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L515" s="7"/>
       <c r="M515" s="2" t="s">
         <v>100</v>
       </c>
@@ -29357,9 +29255,7 @@
         <v>427</v>
       </c>
       <c r="K516" s="2"/>
-      <c r="L516" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L516" s="7"/>
       <c r="M516" s="2" t="s">
         <v>100</v>
       </c>
@@ -29386,46 +29282,44 @@
       <c r="V516" s="2"/>
     </row>
     <row r="517" spans="1:22">
-      <c r="A517" s="2" t="s">
+      <c r="A517" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B517" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C517" s="2" t="s">
+      <c r="C517" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D517" s="2"/>
-      <c r="E517" s="2"/>
-      <c r="F517" s="2"/>
-      <c r="G517" s="2"/>
-      <c r="H517" s="2"/>
-      <c r="I517" s="2"/>
-      <c r="J517" s="2" t="s">
+      <c r="D517" s="5"/>
+      <c r="E517" s="5"/>
+      <c r="F517" s="5"/>
+      <c r="G517" s="5"/>
+      <c r="H517" s="5"/>
+      <c r="I517" s="5"/>
+      <c r="J517" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K517" s="2" t="s">
+      <c r="K517" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="L517" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M517" s="2" t="s">
+      <c r="L517" s="7"/>
+      <c r="M517" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N517" s="2" t="s">
+      <c r="N517" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O517" s="2"/>
-      <c r="P517" s="2"/>
-      <c r="Q517" s="2"/>
-      <c r="R517" s="2"/>
-      <c r="S517" s="2"/>
-      <c r="T517" s="2"/>
-      <c r="U517" s="2" t="s">
+      <c r="O517" s="5"/>
+      <c r="P517" s="5"/>
+      <c r="Q517" s="5"/>
+      <c r="R517" s="5"/>
+      <c r="S517" s="5"/>
+      <c r="T517" s="5"/>
+      <c r="U517" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="V517" s="2" t="s">
+      <c r="V517" s="5" t="s">
         <v>543</v>
       </c>
     </row>
@@ -29692,44 +29586,42 @@
       <c r="V522" s="2"/>
     </row>
     <row r="523" spans="1:22">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B523" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C523" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D523" s="2"/>
-      <c r="E523" s="2"/>
-      <c r="F523" s="2"/>
-      <c r="G523" s="2"/>
-      <c r="H523" s="2"/>
-      <c r="I523" s="2"/>
-      <c r="J523" s="2" t="s">
+      <c r="C523" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D523" s="5"/>
+      <c r="E523" s="5"/>
+      <c r="F523" s="5"/>
+      <c r="G523" s="5"/>
+      <c r="H523" s="5"/>
+      <c r="I523" s="5"/>
+      <c r="J523" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K523" s="2"/>
-      <c r="L523" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M523" s="2" t="s">
+      <c r="K523" s="5"/>
+      <c r="L523" s="7"/>
+      <c r="M523" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N523" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O523" s="2"/>
-      <c r="P523" s="2"/>
-      <c r="Q523" s="2"/>
-      <c r="R523" s="2"/>
-      <c r="S523" s="2"/>
-      <c r="T523" s="2"/>
-      <c r="U523" s="2" t="s">
+      <c r="N523" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O523" s="5"/>
+      <c r="P523" s="5"/>
+      <c r="Q523" s="5"/>
+      <c r="R523" s="5"/>
+      <c r="S523" s="5"/>
+      <c r="T523" s="5"/>
+      <c r="U523" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V523" s="2"/>
+      <c r="V523" s="5"/>
     </row>
     <row r="524" spans="1:22">
       <c r="A524" s="2" t="s">
@@ -30125,9 +30017,7 @@
         <v>427</v>
       </c>
       <c r="K531" s="2"/>
-      <c r="L531" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L531" s="7"/>
       <c r="M531" s="2" t="s">
         <v>103</v>
       </c>
@@ -30154,46 +30044,44 @@
       <c r="V531" s="2"/>
     </row>
     <row r="532" spans="1:22">
-      <c r="A532" s="2" t="s">
+      <c r="A532" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="C532" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D532" s="2"/>
-      <c r="E532" s="2"/>
-      <c r="F532" s="2"/>
-      <c r="G532" s="2"/>
-      <c r="H532" s="2"/>
-      <c r="I532" s="2"/>
-      <c r="J532" s="2" t="s">
+      <c r="D532" s="5"/>
+      <c r="E532" s="5"/>
+      <c r="F532" s="5"/>
+      <c r="G532" s="5"/>
+      <c r="H532" s="5"/>
+      <c r="I532" s="5"/>
+      <c r="J532" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K532" s="2" t="s">
+      <c r="K532" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="L532" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M532" s="2" t="s">
+      <c r="L532" s="7"/>
+      <c r="M532" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N532" s="2" t="s">
+      <c r="N532" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O532" s="2"/>
-      <c r="P532" s="2"/>
-      <c r="Q532" s="2"/>
-      <c r="R532" s="2"/>
-      <c r="S532" s="2"/>
-      <c r="T532" s="2"/>
-      <c r="U532" s="2" t="s">
+      <c r="O532" s="5"/>
+      <c r="P532" s="5"/>
+      <c r="Q532" s="5"/>
+      <c r="R532" s="5"/>
+      <c r="S532" s="5"/>
+      <c r="T532" s="5"/>
+      <c r="U532" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="V532" s="2" t="s">
+      <c r="V532" s="5" t="s">
         <v>547</v>
       </c>
     </row>
@@ -30321,9 +30209,7 @@
         <v>426</v>
       </c>
       <c r="K535" s="2"/>
-      <c r="L535" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L535" s="7"/>
       <c r="M535" s="2" t="s">
         <v>104</v>
       </c>
@@ -30608,46 +30494,44 @@
       </c>
     </row>
     <row r="541" spans="1:22">
-      <c r="A541" s="2" t="s">
+      <c r="A541" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C541" s="2" t="s">
+      <c r="C541" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D541" s="2"/>
-      <c r="E541" s="2"/>
-      <c r="F541" s="2"/>
-      <c r="G541" s="2"/>
-      <c r="H541" s="2"/>
-      <c r="I541" s="2"/>
-      <c r="J541" s="2" t="s">
+      <c r="D541" s="5"/>
+      <c r="E541" s="5"/>
+      <c r="F541" s="5"/>
+      <c r="G541" s="5"/>
+      <c r="H541" s="5"/>
+      <c r="I541" s="5"/>
+      <c r="J541" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K541" s="2" t="s">
+      <c r="K541" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="L541" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M541" s="2" t="s">
+      <c r="L541" s="7"/>
+      <c r="M541" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N541" s="2" t="s">
+      <c r="N541" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O541" s="2"/>
-      <c r="P541" s="2"/>
-      <c r="Q541" s="2"/>
-      <c r="R541" s="2"/>
-      <c r="S541" s="2"/>
-      <c r="T541" s="2"/>
-      <c r="U541" s="2" t="s">
+      <c r="O541" s="5"/>
+      <c r="P541" s="5"/>
+      <c r="Q541" s="5"/>
+      <c r="R541" s="5"/>
+      <c r="S541" s="5"/>
+      <c r="T541" s="5"/>
+      <c r="U541" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="V541" s="2" t="s">
+      <c r="V541" s="5" t="s">
         <v>549</v>
       </c>
     </row>
@@ -31076,44 +30960,42 @@
       </c>
     </row>
     <row r="550" spans="1:22">
-      <c r="A550" s="2" t="s">
+      <c r="A550" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="B550" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C550" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D550" s="2"/>
-      <c r="E550" s="2"/>
-      <c r="F550" s="2"/>
-      <c r="G550" s="2"/>
-      <c r="H550" s="2"/>
-      <c r="I550" s="2"/>
-      <c r="J550" s="2" t="s">
+      <c r="C550" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D550" s="5"/>
+      <c r="E550" s="5"/>
+      <c r="F550" s="5"/>
+      <c r="G550" s="5"/>
+      <c r="H550" s="5"/>
+      <c r="I550" s="5"/>
+      <c r="J550" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K550" s="2"/>
-      <c r="L550" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M550" s="2" t="s">
+      <c r="K550" s="5"/>
+      <c r="L550" s="7"/>
+      <c r="M550" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N550" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O550" s="2"/>
-      <c r="P550" s="2"/>
-      <c r="Q550" s="2"/>
-      <c r="R550" s="2"/>
-      <c r="S550" s="2"/>
-      <c r="T550" s="2"/>
-      <c r="U550" s="2" t="s">
+      <c r="N550" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O550" s="5"/>
+      <c r="P550" s="5"/>
+      <c r="Q550" s="5"/>
+      <c r="R550" s="5"/>
+      <c r="S550" s="5"/>
+      <c r="T550" s="5"/>
+      <c r="U550" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V550" s="2"/>
+      <c r="V550" s="5"/>
     </row>
     <row r="551" spans="1:22">
       <c r="A551" s="2" t="s">
